--- a/public/res/leaderboards/Round 1/Beginner.xlsx
+++ b/public/res/leaderboards/Round 1/Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/poker-tournament-leaderboard/public/res/leaderboards/Round 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B406E2-0AA2-8540-A56C-D653F8442818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC0A83-2987-244F-A38B-166EF091C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Sicong Chen</t>
   </si>
   <si>
-    <t>Smith (Pagnarasmey) Pit</t>
-  </si>
-  <si>
     <t>Soon Wei Tan</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Benson</t>
+  </si>
+  <si>
+    <t>Smith Pit</t>
   </si>
 </sst>
 </file>
@@ -173,6 +173,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -517,13 +518,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -574,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -607,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -618,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -629,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -640,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -651,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -662,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -673,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -684,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -695,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -706,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -717,7 +723,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -728,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -739,7 +745,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -750,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -761,7 +767,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -772,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -783,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -794,7 +800,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -805,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -816,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -827,7 +833,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -838,7 +844,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -849,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -860,7 +866,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -871,7 +877,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -882,7 +888,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -893,7 +899,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -904,7 +910,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -915,7 +921,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -992,31 +998,9 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45">
         <v>0</v>
       </c>
     </row>

--- a/public/res/leaderboards/Round 1/Beginner.xlsx
+++ b/public/res/leaderboards/Round 1/Beginner.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/poker-tournament-leaderboard/public/res/leaderboards/Round 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/qts-miscellaneous/poker_tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC0A83-2987-244F-A38B-166EF091C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D53D7-9740-C34A-8C1D-70E9395605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$53</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -34,6 +37,9 @@
     <t>Aditya Desu</t>
   </si>
   <si>
+    <t>Anh Khoa Dang</t>
+  </si>
+  <si>
     <t>Archit Agarwal</t>
   </si>
   <si>
@@ -100,6 +106,15 @@
     <t>Planning Jay Vynn Saw</t>
   </si>
   <si>
+    <t>Pong Ratasa Chhay</t>
+  </si>
+  <si>
+    <t>Pragun Sikri</t>
+  </si>
+  <si>
+    <t>Puthirith Keo</t>
+  </si>
+  <si>
     <t>Qingyuan Zhang</t>
   </si>
   <si>
@@ -109,6 +124,9 @@
     <t>Raphael Knupfer</t>
   </si>
   <si>
+    <t>Reinard Rumantir</t>
+  </si>
+  <si>
     <t>Rithy Ung</t>
   </si>
   <si>
@@ -127,12 +145,18 @@
     <t>Sebastien Colin Rivalland</t>
   </si>
   <si>
+    <t>Shashank Sanjay Bhat</t>
+  </si>
+  <si>
     <t>Sicong Chen</t>
   </si>
   <si>
     <t>Soon Wei Tan</t>
   </si>
   <si>
+    <t>Sze Ching Tay</t>
+  </si>
+  <si>
     <t>Timothy Wang</t>
   </si>
   <si>
@@ -148,10 +172,16 @@
     <t>Yucheng Chien</t>
   </si>
   <si>
+    <t>Zhonghong Ge</t>
+  </si>
+  <si>
     <t>Marcus Chua</t>
   </si>
   <si>
     <t>Benson</t>
+  </si>
+  <si>
+    <t>Faez Qureshi</t>
   </si>
   <si>
     <t>Smith Pit</t>
@@ -518,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="349" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -588,10 +618,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -599,10 +629,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -621,7 +651,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -632,7 +662,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -643,7 +673,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -654,10 +684,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -665,10 +695,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -676,10 +706,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -687,10 +717,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -698,10 +728,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -709,10 +739,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -720,10 +750,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -731,10 +761,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -742,10 +772,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -753,10 +783,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -767,7 +797,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -778,7 +808,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -789,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -800,7 +830,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -811,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -822,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -833,7 +863,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -844,7 +874,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -855,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -866,7 +896,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -877,7 +907,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -888,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -899,7 +929,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -910,7 +940,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -921,7 +951,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -932,7 +962,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -943,7 +973,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -954,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -965,7 +995,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -976,7 +1006,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -987,7 +1017,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -998,13 +1028,128 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C53" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
+      <sortCondition ref="B1:B53"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>